--- a/BackTest/2020-01-23 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-23 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-26962.91448159002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-26962.91448159002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-28542.61688159002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-28449.82378159002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-28553.82378159002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-39150.64208159002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-39150.64208159002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-48414.77798159002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-51564.94348159002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,22 +2233,15 @@
         <v>-65397.47068159001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>311</v>
-      </c>
-      <c r="K56" t="n">
-        <v>311</v>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2440,26 +2266,15 @@
         <v>-62819.78498159001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>312</v>
-      </c>
-      <c r="K57" t="n">
-        <v>311</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2486,22 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>311</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2526,26 +2332,15 @@
         <v>-63580.55778159001</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>312</v>
-      </c>
-      <c r="K59" t="n">
-        <v>311</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2570,26 +2365,15 @@
         <v>-63580.55778159001</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>312</v>
-      </c>
-      <c r="K60" t="n">
-        <v>311</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2616,22 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>311</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2658,22 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>311</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2700,22 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>311</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2740,24 +2497,15 @@
         <v>-60722.04524985002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>311</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2782,24 +2530,15 @@
         <v>-60722.04524985002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>311</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2824,24 +2563,15 @@
         <v>-64052.04194985002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>311</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2866,24 +2596,15 @@
         <v>-66713.17424985002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>311</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2908,24 +2629,15 @@
         <v>-77388.05244985002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>311</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2950,24 +2662,15 @@
         <v>-77278.75974985001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>311</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2992,24 +2695,15 @@
         <v>-77872.78374985002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>311</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3036,22 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>311</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3078,22 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>311</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3120,22 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>311</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3162,22 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>311</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3204,22 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>311</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3246,22 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>311</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3286,26 +2926,15 @@
         <v>-78765.19234985001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K77" t="n">
-        <v>311</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3330,26 +2959,15 @@
         <v>-78652.08024985001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>313.4</v>
-      </c>
-      <c r="K78" t="n">
-        <v>311</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3374,26 +2992,15 @@
         <v>-62549.01414985002</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>315</v>
-      </c>
-      <c r="K79" t="n">
-        <v>311</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3418,26 +3025,15 @@
         <v>-64198.55444985002</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>317.7</v>
-      </c>
-      <c r="K80" t="n">
-        <v>311</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3462,26 +3058,15 @@
         <v>-62532.84271602002</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="K81" t="n">
-        <v>311</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3506,26 +3091,15 @@
         <v>-59706.61121602001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>316.1</v>
-      </c>
-      <c r="K82" t="n">
-        <v>311</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3552,22 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>311</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3592,26 +3157,15 @@
         <v>-61417.55011602001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>316</v>
-      </c>
-      <c r="K84" t="n">
-        <v>311</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3636,26 +3190,19 @@
         <v>-61373.05011602001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="J85" t="n">
         <v>316</v>
       </c>
-      <c r="K85" t="n">
-        <v>311</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3680,26 +3227,21 @@
         <v>-61373.05011602001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>317</v>
-      </c>
-      <c r="K86" t="n">
-        <v>311</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>316</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3724,26 +3266,23 @@
         <v>-61003.98241602002</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="J87" t="n">
-        <v>317</v>
-      </c>
-      <c r="K87" t="n">
-        <v>311</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>316</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3768,26 +3307,23 @@
         <v>-61003.98241602002</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="J88" t="n">
-        <v>318</v>
-      </c>
-      <c r="K88" t="n">
-        <v>311</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>316</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3812,24 +3348,23 @@
         <v>-61003.98241602002</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>311</v>
-      </c>
-      <c r="L89" t="inlineStr">
+        <v>318</v>
+      </c>
+      <c r="J89" t="n">
+        <v>316</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3854,26 +3389,21 @@
         <v>-61003.98241602002</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>318</v>
-      </c>
-      <c r="K90" t="n">
-        <v>311</v>
-      </c>
-      <c r="L90" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3898,26 +3428,21 @@
         <v>-61949.69861602002</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>318</v>
-      </c>
-      <c r="K91" t="n">
-        <v>311</v>
-      </c>
-      <c r="L91" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3942,26 +3467,21 @@
         <v>-56775.69861602002</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>316.3</v>
-      </c>
-      <c r="K92" t="n">
-        <v>311</v>
-      </c>
-      <c r="L92" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3986,26 +3506,21 @@
         <v>-56775.69861602002</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="K93" t="n">
-        <v>311</v>
-      </c>
-      <c r="L93" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4030,26 +3545,21 @@
         <v>-56775.69861602002</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="K94" t="n">
-        <v>311</v>
-      </c>
-      <c r="L94" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4074,26 +3584,21 @@
         <v>-56775.69861602002</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="K95" t="n">
-        <v>311</v>
-      </c>
-      <c r="L95" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4118,26 +3623,21 @@
         <v>-58596.46321602002</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="K96" t="n">
-        <v>311</v>
-      </c>
-      <c r="L96" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4162,26 +3662,21 @@
         <v>-59159.00751602002</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>316.6</v>
-      </c>
-      <c r="K97" t="n">
-        <v>311</v>
-      </c>
-      <c r="L97" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4206,26 +3701,21 @@
         <v>-59159.00751602002</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>316.5</v>
-      </c>
-      <c r="K98" t="n">
-        <v>311</v>
-      </c>
-      <c r="L98" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4250,26 +3740,21 @@
         <v>-61206.87111602002</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>316.5</v>
-      </c>
-      <c r="K99" t="n">
-        <v>311</v>
-      </c>
-      <c r="L99" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4294,26 +3779,21 @@
         <v>-64944.14021602002</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>316.4</v>
-      </c>
-      <c r="K100" t="n">
-        <v>311</v>
-      </c>
-      <c r="L100" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4338,26 +3818,21 @@
         <v>-65399.35051602001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>316.3</v>
-      </c>
-      <c r="K101" t="n">
-        <v>311</v>
-      </c>
-      <c r="L101" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4382,26 +3857,21 @@
         <v>-65306.35051602001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>314</v>
-      </c>
-      <c r="K102" t="n">
-        <v>311</v>
-      </c>
-      <c r="L102" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4426,26 +3896,21 @@
         <v>-65806.35051602001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>316.8</v>
-      </c>
-      <c r="K103" t="n">
-        <v>311</v>
-      </c>
-      <c r="L103" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4470,26 +3935,21 @@
         <v>-65806.35051602001</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="K104" t="n">
-        <v>311</v>
-      </c>
-      <c r="L104" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4514,26 +3974,21 @@
         <v>-65806.35051602001</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="K105" t="n">
-        <v>311</v>
-      </c>
-      <c r="L105" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4558,26 +4013,21 @@
         <v>-68714.30511602001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="K106" t="n">
-        <v>311</v>
-      </c>
-      <c r="L106" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4602,26 +4052,21 @@
         <v>-68386.31141602001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>314</v>
-      </c>
-      <c r="K107" t="n">
-        <v>311</v>
-      </c>
-      <c r="L107" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4646,26 +4091,21 @@
         <v>-68386.31141602001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>314.1</v>
-      </c>
-      <c r="K108" t="n">
-        <v>311</v>
-      </c>
-      <c r="L108" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4690,26 +4130,21 @@
         <v>-68486.31141602001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>314.1</v>
-      </c>
-      <c r="K109" t="n">
-        <v>311</v>
-      </c>
-      <c r="L109" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4734,26 +4169,21 @@
         <v>-68636.31141602001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>314</v>
-      </c>
-      <c r="K110" t="n">
-        <v>311</v>
-      </c>
-      <c r="L110" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4778,26 +4208,21 @@
         <v>-68586.26221602001</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>313.4</v>
-      </c>
-      <c r="K111" t="n">
-        <v>311</v>
-      </c>
-      <c r="L111" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4822,26 +4247,21 @@
         <v>-68065.77661602001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>314</v>
-      </c>
-      <c r="K112" t="n">
-        <v>311</v>
-      </c>
-      <c r="L112" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4868,22 +4288,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>311</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>316</v>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4908,26 +4325,21 @@
         <v>-72167.80721602001</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>315</v>
-      </c>
-      <c r="K114" t="n">
-        <v>311</v>
-      </c>
-      <c r="L114" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4954,22 +4366,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>311</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>316</v>
+      </c>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4994,26 +4403,21 @@
         <v>-78586.80721602001</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>313</v>
-      </c>
-      <c r="K116" t="n">
-        <v>311</v>
-      </c>
-      <c r="L116" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5038,26 +4442,21 @@
         <v>-78586.80721602001</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>313</v>
-      </c>
-      <c r="K117" t="n">
-        <v>311</v>
-      </c>
-      <c r="L117" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5082,26 +4481,21 @@
         <v>-79283.90741602001</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>313</v>
-      </c>
-      <c r="K118" t="n">
-        <v>311</v>
-      </c>
-      <c r="L118" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5126,26 +4520,21 @@
         <v>-79283.90741602001</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="K119" t="n">
-        <v>311</v>
-      </c>
-      <c r="L119" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5170,26 +4559,21 @@
         <v>-79283.90741602001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="K120" t="n">
-        <v>311</v>
-      </c>
-      <c r="L120" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5214,26 +4598,21 @@
         <v>-79283.90741602001</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="K121" t="n">
-        <v>311</v>
-      </c>
-      <c r="L121" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5258,26 +4637,21 @@
         <v>-80662.12691602002</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="K122" t="n">
-        <v>311</v>
-      </c>
-      <c r="L122" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5302,26 +4676,21 @@
         <v>-79183.90731602002</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>312</v>
-      </c>
-      <c r="K123" t="n">
-        <v>311</v>
-      </c>
-      <c r="L123" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5346,26 +4715,21 @@
         <v>-80384.47941602003</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>315.9</v>
-      </c>
-      <c r="K124" t="n">
-        <v>311</v>
-      </c>
-      <c r="L124" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5390,26 +4754,21 @@
         <v>-80384.47941602003</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>314.3</v>
-      </c>
-      <c r="K125" t="n">
-        <v>311</v>
-      </c>
-      <c r="L125" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5434,26 +4793,21 @@
         <v>-83744.47941602003</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>314.3</v>
-      </c>
-      <c r="K126" t="n">
-        <v>311</v>
-      </c>
-      <c r="L126" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5478,26 +4832,21 @@
         <v>-83740.47941602003</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>312.1</v>
-      </c>
-      <c r="K127" t="n">
-        <v>311</v>
-      </c>
-      <c r="L127" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5522,26 +4871,21 @@
         <v>-89809.34471602003</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>313.7</v>
-      </c>
-      <c r="K128" t="n">
-        <v>311</v>
-      </c>
-      <c r="L128" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5566,26 +4910,21 @@
         <v>-89215.62871602003</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>310.3</v>
-      </c>
-      <c r="K129" t="n">
-        <v>311</v>
-      </c>
-      <c r="L129" t="inlineStr">
+        <v>316</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5612,24 +4951,21 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>311</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>316</v>
+      </c>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-23 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-30707.04128159002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-27726.22358159002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-37233.45858159002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-37233.45858159002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-37233.45858159002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-37230.25858159002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-26962.91448159002</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-26962.91448159002</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-28542.61688159002</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-28449.82378159002</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-28553.82378159002</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-39150.64208159002</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-39150.64208159002</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-48414.77798159002</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-51564.94348159002</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-60722.04524985002</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-60722.04524985002</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-64052.04194985002</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-66713.17424985002</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-77388.05244985002</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-77278.75974985001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-77872.78374985002</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,10 +2728,14 @@
         <v>-77493.11234985001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="J71" t="n">
+        <v>310.5</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
@@ -2761,11 +2765,19 @@
         <v>-77427.11234985001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="J72" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2806,19 @@
         <v>-77442.11234985001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>315.7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,10 +2847,14 @@
         <v>-77442.11234985001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>312.1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>312.1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2860,11 +2884,19 @@
         <v>-80103.24464985001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>312.1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>312.1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +2925,19 @@
         <v>-78747.21594985001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>311.1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>312.1</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,10 +2966,14 @@
         <v>-78765.19234985001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>313.6</v>
+      </c>
+      <c r="J77" t="n">
+        <v>313.6</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -2959,11 +3003,19 @@
         <v>-78652.08024985001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>313.4</v>
+      </c>
+      <c r="J78" t="n">
+        <v>313.6</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3044,19 @@
         <v>-62549.01414985002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>315</v>
+      </c>
+      <c r="J79" t="n">
+        <v>313.6</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3088,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>313.6</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3127,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>313.6</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3166,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>313.6</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3205,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>313.6</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3244,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>313.6</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,15 +3280,17 @@
         <v>-61373.05011602001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>316</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+        <v>313.6</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3231,11 +3323,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3266,17 +3358,17 @@
         <v>-61003.98241602002</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>317</v>
       </c>
       <c r="J87" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3307,17 +3399,17 @@
         <v>-61003.98241602002</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>318</v>
       </c>
       <c r="J88" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -3348,13 +3440,11 @@
         <v>-61003.98241602002</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>318</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3393,7 +3483,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3432,7 +3522,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3471,7 +3561,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3510,7 +3600,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3549,7 +3639,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3588,7 +3678,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3627,7 +3717,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3666,7 +3756,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3705,7 +3795,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3744,7 +3834,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3783,7 +3873,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3822,7 +3912,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3861,7 +3951,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3900,7 +3990,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3939,7 +4029,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -3978,7 +4068,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4017,7 +4107,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4056,7 +4146,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4095,7 +4185,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4134,7 +4224,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4173,7 +4263,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4212,7 +4302,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4251,7 +4341,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4290,7 +4380,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4329,7 +4419,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4368,7 +4458,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4407,7 +4497,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4446,7 +4536,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4481,11 +4571,13 @@
         <v>-79283.90741602001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>313</v>
+      </c>
       <c r="J118" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4524,7 +4616,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4563,7 +4655,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4602,7 +4694,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4641,7 +4733,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4676,11 +4768,13 @@
         <v>-79183.90731602002</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>312</v>
+      </c>
       <c r="J123" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4715,11 +4809,13 @@
         <v>-80384.47941602003</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>315.9</v>
+      </c>
       <c r="J124" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4754,11 +4850,13 @@
         <v>-80384.47941602003</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>314.3</v>
+      </c>
       <c r="J125" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4793,11 +4891,13 @@
         <v>-83744.47941602003</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>314.3</v>
+      </c>
       <c r="J126" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4832,11 +4932,13 @@
         <v>-83740.47941602003</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>312.1</v>
+      </c>
       <c r="J127" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4871,11 +4973,13 @@
         <v>-89809.34471602003</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>313.7</v>
+      </c>
       <c r="J128" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4910,11 +5014,13 @@
         <v>-89215.62871602003</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>310.3</v>
+      </c>
       <c r="J129" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4949,11 +5055,13 @@
         <v>-89115.62871602003</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>311</v>
+      </c>
       <c r="J130" t="n">
-        <v>316</v>
+        <v>313.6</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4966,6 +5074,6 @@
       <c r="M130" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-23 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-30707.04128159002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-27726.22358159002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-37233.45858159002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-37233.45858159002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-37233.45858159002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-37230.25858159002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-26962.91448159002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-28542.61688159002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-28449.82378159002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-39150.64208159002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -2728,14 +2728,10 @@
         <v>-77493.11234985001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>310.5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>310.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
@@ -2771,13 +2767,9 @@
         <v>310.9</v>
       </c>
       <c r="J72" t="n">
-        <v>310.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>310.9</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2806,13 +2798,11 @@
         <v>-77442.11234985001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>315.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>310.5</v>
+        <v>310.9</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2847,15 +2837,17 @@
         <v>-77442.11234985001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>312.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>312.1</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
+        <v>310.9</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2884,19 +2876,11 @@
         <v>-80103.24464985001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>312.1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>312.1</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2925,19 +2909,11 @@
         <v>-78747.21594985001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>311.1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>312.1</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2966,14 +2942,10 @@
         <v>-78765.19234985001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="J77" t="n">
-        <v>313.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -3003,2077 +2975,1739 @@
         <v>-78652.08024985001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>315</v>
+      </c>
+      <c r="C79" t="n">
+        <v>317.7</v>
+      </c>
+      <c r="D79" t="n">
+        <v>317.7</v>
+      </c>
+      <c r="E79" t="n">
+        <v>315</v>
+      </c>
+      <c r="F79" t="n">
+        <v>16103.0661</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-62549.01414985002</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>317.7</v>
+      </c>
+      <c r="C80" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>317.7</v>
+      </c>
+      <c r="E80" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1649.5403</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-64198.55444985002</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>321.6</v>
+      </c>
+      <c r="C81" t="n">
+        <v>316.1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>321.6</v>
+      </c>
+      <c r="E81" t="n">
+        <v>316.1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1665.71173383</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-62532.84271602002</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>321.6</v>
+      </c>
+      <c r="C82" t="n">
+        <v>321.6</v>
+      </c>
+      <c r="D82" t="n">
+        <v>321.6</v>
+      </c>
+      <c r="E82" t="n">
+        <v>321.6</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2826.2315</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-59706.61121602001</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>316.1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>316</v>
+      </c>
+      <c r="D83" t="n">
+        <v>316.1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>316</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1710.9389</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-61417.55011602001</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>316</v>
+      </c>
+      <c r="C84" t="n">
+        <v>316</v>
+      </c>
+      <c r="D84" t="n">
+        <v>316</v>
+      </c>
+      <c r="E84" t="n">
+        <v>316</v>
+      </c>
+      <c r="F84" t="n">
+        <v>464.0062</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-61417.55011602001</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>317</v>
+      </c>
+      <c r="C85" t="n">
+        <v>317</v>
+      </c>
+      <c r="D85" t="n">
+        <v>317</v>
+      </c>
+      <c r="E85" t="n">
+        <v>317</v>
+      </c>
+      <c r="F85" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-61373.05011602001</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>317</v>
+      </c>
+      <c r="C86" t="n">
+        <v>317</v>
+      </c>
+      <c r="D86" t="n">
+        <v>317</v>
+      </c>
+      <c r="E86" t="n">
+        <v>317</v>
+      </c>
+      <c r="F86" t="n">
+        <v>773.6439</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-61373.05011602001</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>318</v>
+      </c>
+      <c r="C87" t="n">
+        <v>318</v>
+      </c>
+      <c r="D87" t="n">
+        <v>318</v>
+      </c>
+      <c r="E87" t="n">
+        <v>318</v>
+      </c>
+      <c r="F87" t="n">
+        <v>369.0677</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-61003.98241602002</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>319</v>
+      </c>
+      <c r="C88" t="n">
+        <v>318</v>
+      </c>
+      <c r="D88" t="n">
+        <v>319</v>
+      </c>
+      <c r="E88" t="n">
+        <v>318</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3132.3245</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-61003.98241602002</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>320.3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>318</v>
+      </c>
+      <c r="D89" t="n">
+        <v>320.3</v>
+      </c>
+      <c r="E89" t="n">
+        <v>318</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1170.5805</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-61003.98241602002</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>318</v>
+      </c>
+      <c r="C90" t="n">
+        <v>318</v>
+      </c>
+      <c r="D90" t="n">
+        <v>318</v>
+      </c>
+      <c r="E90" t="n">
+        <v>318</v>
+      </c>
+      <c r="F90" t="n">
+        <v>5.7054</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-61003.98241602002</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="C91" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="D91" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="E91" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="F91" t="n">
+        <v>945.7162</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-61949.69861602002</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="D92" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="E92" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="F92" t="n">
+        <v>5174</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-56775.69861602002</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="C93" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="D93" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="E93" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="F93" t="n">
+        <v>157</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-56775.69861602002</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="C94" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="D94" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="E94" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1023.28</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-56775.69861602002</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="C95" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="D95" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="E95" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="F95" t="n">
+        <v>705.5506</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-56775.69861602002</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>316.6</v>
+      </c>
+      <c r="C96" t="n">
+        <v>316.6</v>
+      </c>
+      <c r="D96" t="n">
+        <v>316.6</v>
+      </c>
+      <c r="E96" t="n">
+        <v>316.6</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1820.7646</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-58596.46321602002</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>316.6</v>
+      </c>
+      <c r="C97" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>316.6</v>
+      </c>
+      <c r="E97" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>562.5443</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-59159.00751602002</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2042.3786</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-59159.00751602002</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>316.4</v>
+      </c>
+      <c r="C99" t="n">
+        <v>316.4</v>
+      </c>
+      <c r="D99" t="n">
+        <v>316.4</v>
+      </c>
+      <c r="E99" t="n">
+        <v>316.4</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2047.8636</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-61206.87111602002</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>316.4</v>
+      </c>
+      <c r="C100" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>316.4</v>
+      </c>
+      <c r="E100" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3737.2691</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-64944.14021602002</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>314</v>
+      </c>
+      <c r="C101" t="n">
+        <v>314</v>
+      </c>
+      <c r="D101" t="n">
+        <v>314</v>
+      </c>
+      <c r="E101" t="n">
+        <v>314</v>
+      </c>
+      <c r="F101" t="n">
+        <v>455.2103</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-65399.35051602001</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>316.8</v>
+      </c>
+      <c r="C102" t="n">
+        <v>316.8</v>
+      </c>
+      <c r="D102" t="n">
+        <v>316.8</v>
+      </c>
+      <c r="E102" t="n">
+        <v>316.8</v>
+      </c>
+      <c r="F102" t="n">
+        <v>93</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-65306.35051602001</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="C103" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="D103" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="E103" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="F103" t="n">
+        <v>500</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-65806.35051602001</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="C104" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="D104" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="E104" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="F104" t="n">
+        <v>78.1936</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-65806.35051602001</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="C105" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="D105" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="E105" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="F105" t="n">
+        <v>364.4375</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-65806.35051602001</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>314.6</v>
+      </c>
+      <c r="C106" t="n">
+        <v>314</v>
+      </c>
+      <c r="D106" t="n">
+        <v>314.6</v>
+      </c>
+      <c r="E106" t="n">
         <v>313.4</v>
       </c>
-      <c r="J78" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K78" t="inlineStr">
+      <c r="F106" t="n">
+        <v>2907.9546</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-68714.30511602001</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>314.1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>314.1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>314.1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>314.1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>327.9937</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-68386.31141602001</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>314.1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>314.1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>314.1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>314.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>295.1944</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-68386.31141602001</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>314</v>
+      </c>
+      <c r="C109" t="n">
+        <v>314</v>
+      </c>
+      <c r="D109" t="n">
+        <v>314</v>
+      </c>
+      <c r="E109" t="n">
+        <v>314</v>
+      </c>
+      <c r="F109" t="n">
+        <v>100</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-68486.31141602001</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>313.4</v>
+      </c>
+      <c r="C110" t="n">
+        <v>313.4</v>
+      </c>
+      <c r="D110" t="n">
+        <v>313.4</v>
+      </c>
+      <c r="E110" t="n">
+        <v>313.4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>150</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-68636.31141602001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>314</v>
+      </c>
+      <c r="C111" t="n">
+        <v>314</v>
+      </c>
+      <c r="D111" t="n">
+        <v>314</v>
+      </c>
+      <c r="E111" t="n">
+        <v>314</v>
+      </c>
+      <c r="F111" t="n">
+        <v>50.0492</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-68586.26221602001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>520.4856</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-68065.77661602001</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>314</v>
+      </c>
+      <c r="C113" t="n">
+        <v>315</v>
+      </c>
+      <c r="D113" t="n">
+        <v>315</v>
+      </c>
+      <c r="E113" t="n">
+        <v>313.1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4102.0306</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-72167.80721602001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>314.9</v>
+      </c>
+      <c r="C114" t="n">
+        <v>315</v>
+      </c>
+      <c r="D114" t="n">
+        <v>315</v>
+      </c>
+      <c r="E114" t="n">
+        <v>314.9</v>
+      </c>
+      <c r="F114" t="n">
+        <v>879.4542</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-72167.80721602001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>313.1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>313</v>
+      </c>
+      <c r="D115" t="n">
+        <v>313.1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>313</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6419</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-78586.80721602001</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>313</v>
+      </c>
+      <c r="C116" t="n">
+        <v>313</v>
+      </c>
+      <c r="D116" t="n">
+        <v>313</v>
+      </c>
+      <c r="E116" t="n">
+        <v>313</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2187.4263</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-78586.80721602001</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>313</v>
+      </c>
+      <c r="C117" t="n">
+        <v>313</v>
+      </c>
+      <c r="D117" t="n">
+        <v>313</v>
+      </c>
+      <c r="E117" t="n">
+        <v>313</v>
+      </c>
+      <c r="F117" t="n">
+        <v>16</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-78586.80721602001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>697.1002</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-79283.90741602001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1145.9382</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-79283.90741602001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="C120" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1403.0515</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-79283.90741602001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2656.7498</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-79283.90741602001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>313</v>
+      </c>
+      <c r="C122" t="n">
+        <v>312</v>
+      </c>
+      <c r="D122" t="n">
+        <v>313</v>
+      </c>
+      <c r="E122" t="n">
+        <v>312</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1378.2195</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-80662.12691602002</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>312</v>
+      </c>
+      <c r="C123" t="n">
+        <v>315.9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>315.9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>312</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1478.2196</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-79183.90731602002</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>314.3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>314.3</v>
+      </c>
+      <c r="D124" t="n">
+        <v>314.3</v>
+      </c>
+      <c r="E124" t="n">
+        <v>314.3</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1200.5721</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-80384.47941602003</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>314.3</v>
+      </c>
+      <c r="C125" t="n">
+        <v>314.3</v>
+      </c>
+      <c r="D125" t="n">
+        <v>314.3</v>
+      </c>
+      <c r="E125" t="n">
+        <v>314.3</v>
+      </c>
+      <c r="F125" t="n">
+        <v>477.7019</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-80384.47941602003</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>312.1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>312.1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>312.1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>312.1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3360</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-83744.47941602003</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>313.7</v>
+      </c>
+      <c r="C127" t="n">
+        <v>313.7</v>
+      </c>
+      <c r="D127" t="n">
+        <v>313.7</v>
+      </c>
+      <c r="E127" t="n">
+        <v>313.7</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-83740.47941602003</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>312.1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>310.3</v>
+      </c>
+      <c r="D128" t="n">
+        <v>312.1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>310.3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>6068.8653</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-89809.34471602003</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>311</v>
+      </c>
+      <c r="C129" t="n">
+        <v>311</v>
+      </c>
+      <c r="D129" t="n">
+        <v>311</v>
+      </c>
+      <c r="E129" t="n">
+        <v>311</v>
+      </c>
+      <c r="F129" t="n">
+        <v>593.716</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-89215.62871602003</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>311</v>
+      </c>
+      <c r="C130" t="n">
+        <v>312.9</v>
+      </c>
+      <c r="D130" t="n">
+        <v>312.9</v>
+      </c>
+      <c r="E130" t="n">
+        <v>311</v>
+      </c>
+      <c r="F130" t="n">
+        <v>100</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-89115.62871602003</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>311</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>315</v>
-      </c>
-      <c r="C79" t="n">
-        <v>317.7</v>
-      </c>
-      <c r="D79" t="n">
-        <v>317.7</v>
-      </c>
-      <c r="E79" t="n">
-        <v>315</v>
-      </c>
-      <c r="F79" t="n">
-        <v>16103.0661</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-62549.01414985002</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>315</v>
-      </c>
-      <c r="J79" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>317.7</v>
-      </c>
-      <c r="C80" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="D80" t="n">
-        <v>317.7</v>
-      </c>
-      <c r="E80" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1649.5403</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-64198.55444985002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>321.6</v>
-      </c>
-      <c r="C81" t="n">
-        <v>316.1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>321.6</v>
-      </c>
-      <c r="E81" t="n">
-        <v>316.1</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1665.71173383</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-62532.84271602002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>321.6</v>
-      </c>
-      <c r="C82" t="n">
-        <v>321.6</v>
-      </c>
-      <c r="D82" t="n">
-        <v>321.6</v>
-      </c>
-      <c r="E82" t="n">
-        <v>321.6</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2826.2315</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-59706.61121602001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>316.1</v>
-      </c>
-      <c r="C83" t="n">
-        <v>316</v>
-      </c>
-      <c r="D83" t="n">
-        <v>316.1</v>
-      </c>
-      <c r="E83" t="n">
-        <v>316</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1710.9389</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-61417.55011602001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>316</v>
-      </c>
-      <c r="C84" t="n">
-        <v>316</v>
-      </c>
-      <c r="D84" t="n">
-        <v>316</v>
-      </c>
-      <c r="E84" t="n">
-        <v>316</v>
-      </c>
-      <c r="F84" t="n">
-        <v>464.0062</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-61417.55011602001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>317</v>
-      </c>
-      <c r="C85" t="n">
-        <v>317</v>
-      </c>
-      <c r="D85" t="n">
-        <v>317</v>
-      </c>
-      <c r="E85" t="n">
-        <v>317</v>
-      </c>
-      <c r="F85" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-61373.05011602001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>317</v>
-      </c>
-      <c r="C86" t="n">
-        <v>317</v>
-      </c>
-      <c r="D86" t="n">
-        <v>317</v>
-      </c>
-      <c r="E86" t="n">
-        <v>317</v>
-      </c>
-      <c r="F86" t="n">
-        <v>773.6439</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-61373.05011602001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>318</v>
-      </c>
-      <c r="C87" t="n">
-        <v>318</v>
-      </c>
-      <c r="D87" t="n">
-        <v>318</v>
-      </c>
-      <c r="E87" t="n">
-        <v>318</v>
-      </c>
-      <c r="F87" t="n">
-        <v>369.0677</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-61003.98241602002</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>317</v>
-      </c>
-      <c r="J87" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>319</v>
-      </c>
-      <c r="C88" t="n">
-        <v>318</v>
-      </c>
-      <c r="D88" t="n">
-        <v>319</v>
-      </c>
-      <c r="E88" t="n">
-        <v>318</v>
-      </c>
-      <c r="F88" t="n">
-        <v>3132.3245</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-61003.98241602002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>318</v>
-      </c>
-      <c r="J88" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>320.3</v>
-      </c>
-      <c r="C89" t="n">
-        <v>318</v>
-      </c>
-      <c r="D89" t="n">
-        <v>320.3</v>
-      </c>
-      <c r="E89" t="n">
-        <v>318</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1170.5805</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-61003.98241602002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>318</v>
-      </c>
-      <c r="C90" t="n">
-        <v>318</v>
-      </c>
-      <c r="D90" t="n">
-        <v>318</v>
-      </c>
-      <c r="E90" t="n">
-        <v>318</v>
-      </c>
-      <c r="F90" t="n">
-        <v>5.7054</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-61003.98241602002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>316.3</v>
-      </c>
-      <c r="C91" t="n">
-        <v>316.3</v>
-      </c>
-      <c r="D91" t="n">
-        <v>316.3</v>
-      </c>
-      <c r="E91" t="n">
-        <v>316.3</v>
-      </c>
-      <c r="F91" t="n">
-        <v>945.7162</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-61949.69861602002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="C92" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="D92" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="E92" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="F92" t="n">
-        <v>5174</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-56775.69861602002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="C93" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="D93" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="E93" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="F93" t="n">
-        <v>157</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-56775.69861602002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="C94" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="D94" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="E94" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1023.28</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-56775.69861602002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="C95" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="D95" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="E95" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="F95" t="n">
-        <v>705.5506</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-56775.69861602002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>316.6</v>
-      </c>
-      <c r="C96" t="n">
-        <v>316.6</v>
-      </c>
-      <c r="D96" t="n">
-        <v>316.6</v>
-      </c>
-      <c r="E96" t="n">
-        <v>316.6</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1820.7646</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-58596.46321602002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>316.6</v>
-      </c>
-      <c r="C97" t="n">
-        <v>316.5</v>
-      </c>
-      <c r="D97" t="n">
-        <v>316.6</v>
-      </c>
-      <c r="E97" t="n">
-        <v>316.5</v>
-      </c>
-      <c r="F97" t="n">
-        <v>562.5443</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-59159.00751602002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>316.5</v>
-      </c>
-      <c r="C98" t="n">
-        <v>316.5</v>
-      </c>
-      <c r="D98" t="n">
-        <v>316.5</v>
-      </c>
-      <c r="E98" t="n">
-        <v>316.5</v>
-      </c>
-      <c r="F98" t="n">
-        <v>2042.3786</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-59159.00751602002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>316.4</v>
-      </c>
-      <c r="C99" t="n">
-        <v>316.4</v>
-      </c>
-      <c r="D99" t="n">
-        <v>316.4</v>
-      </c>
-      <c r="E99" t="n">
-        <v>316.4</v>
-      </c>
-      <c r="F99" t="n">
-        <v>2047.8636</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-61206.87111602002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>316.4</v>
-      </c>
-      <c r="C100" t="n">
-        <v>316.3</v>
-      </c>
-      <c r="D100" t="n">
-        <v>316.4</v>
-      </c>
-      <c r="E100" t="n">
-        <v>316.3</v>
-      </c>
-      <c r="F100" t="n">
-        <v>3737.2691</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-64944.14021602002</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>314</v>
-      </c>
-      <c r="C101" t="n">
-        <v>314</v>
-      </c>
-      <c r="D101" t="n">
-        <v>314</v>
-      </c>
-      <c r="E101" t="n">
-        <v>314</v>
-      </c>
-      <c r="F101" t="n">
-        <v>455.2103</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-65399.35051602001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>316.8</v>
-      </c>
-      <c r="C102" t="n">
-        <v>316.8</v>
-      </c>
-      <c r="D102" t="n">
-        <v>316.8</v>
-      </c>
-      <c r="E102" t="n">
-        <v>316.8</v>
-      </c>
-      <c r="F102" t="n">
-        <v>93</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-65306.35051602001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="C103" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="D103" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="E103" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="F103" t="n">
-        <v>500</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-65806.35051602001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="C104" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="D104" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="E104" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="F104" t="n">
-        <v>78.1936</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-65806.35051602001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="C105" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="D105" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="E105" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="F105" t="n">
-        <v>364.4375</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-65806.35051602001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>314.6</v>
-      </c>
-      <c r="C106" t="n">
-        <v>314</v>
-      </c>
-      <c r="D106" t="n">
-        <v>314.6</v>
-      </c>
-      <c r="E106" t="n">
-        <v>313.4</v>
-      </c>
-      <c r="F106" t="n">
-        <v>2907.9546</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-68714.30511602001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>314.1</v>
-      </c>
-      <c r="C107" t="n">
-        <v>314.1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>314.1</v>
-      </c>
-      <c r="E107" t="n">
-        <v>314.1</v>
-      </c>
-      <c r="F107" t="n">
-        <v>327.9937</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-68386.31141602001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>314.1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>314.1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>314.1</v>
-      </c>
-      <c r="E108" t="n">
-        <v>314.1</v>
-      </c>
-      <c r="F108" t="n">
-        <v>295.1944</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-68386.31141602001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>314</v>
-      </c>
-      <c r="C109" t="n">
-        <v>314</v>
-      </c>
-      <c r="D109" t="n">
-        <v>314</v>
-      </c>
-      <c r="E109" t="n">
-        <v>314</v>
-      </c>
-      <c r="F109" t="n">
-        <v>100</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-68486.31141602001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>313.4</v>
-      </c>
-      <c r="C110" t="n">
-        <v>313.4</v>
-      </c>
-      <c r="D110" t="n">
-        <v>313.4</v>
-      </c>
-      <c r="E110" t="n">
-        <v>313.4</v>
-      </c>
-      <c r="F110" t="n">
-        <v>150</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-68636.31141602001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>314</v>
-      </c>
-      <c r="C111" t="n">
-        <v>314</v>
-      </c>
-      <c r="D111" t="n">
-        <v>314</v>
-      </c>
-      <c r="E111" t="n">
-        <v>314</v>
-      </c>
-      <c r="F111" t="n">
-        <v>50.0492</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-68586.26221602001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>315.2</v>
-      </c>
-      <c r="C112" t="n">
-        <v>315.2</v>
-      </c>
-      <c r="D112" t="n">
-        <v>315.2</v>
-      </c>
-      <c r="E112" t="n">
-        <v>315.2</v>
-      </c>
-      <c r="F112" t="n">
-        <v>520.4856</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-68065.77661602001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>314</v>
-      </c>
-      <c r="C113" t="n">
-        <v>315</v>
-      </c>
-      <c r="D113" t="n">
-        <v>315</v>
-      </c>
-      <c r="E113" t="n">
-        <v>313.1</v>
-      </c>
-      <c r="F113" t="n">
-        <v>4102.0306</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-72167.80721602001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>314.9</v>
-      </c>
-      <c r="C114" t="n">
-        <v>315</v>
-      </c>
-      <c r="D114" t="n">
-        <v>315</v>
-      </c>
-      <c r="E114" t="n">
-        <v>314.9</v>
-      </c>
-      <c r="F114" t="n">
-        <v>879.4542</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-72167.80721602001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>313.1</v>
-      </c>
-      <c r="C115" t="n">
-        <v>313</v>
-      </c>
-      <c r="D115" t="n">
-        <v>313.1</v>
-      </c>
-      <c r="E115" t="n">
-        <v>313</v>
-      </c>
-      <c r="F115" t="n">
-        <v>6419</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-78586.80721602001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>313</v>
-      </c>
-      <c r="C116" t="n">
-        <v>313</v>
-      </c>
-      <c r="D116" t="n">
-        <v>313</v>
-      </c>
-      <c r="E116" t="n">
-        <v>313</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2187.4263</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-78586.80721602001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>313</v>
-      </c>
-      <c r="C117" t="n">
-        <v>313</v>
-      </c>
-      <c r="D117" t="n">
-        <v>313</v>
-      </c>
-      <c r="E117" t="n">
-        <v>313</v>
-      </c>
-      <c r="F117" t="n">
-        <v>16</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-78586.80721602001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="C118" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="D118" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="F118" t="n">
-        <v>697.1002</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-79283.90741602001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>313</v>
-      </c>
-      <c r="J118" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="C119" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="E119" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1145.9382</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-79283.90741602001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="C120" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="D120" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="E120" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1403.0515</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-79283.90741602001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="C121" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="D121" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="E121" t="n">
-        <v>312.2</v>
-      </c>
-      <c r="F121" t="n">
-        <v>2656.7498</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-79283.90741602001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>313</v>
-      </c>
-      <c r="C122" t="n">
-        <v>312</v>
-      </c>
-      <c r="D122" t="n">
-        <v>313</v>
-      </c>
-      <c r="E122" t="n">
-        <v>312</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1378.2195</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-80662.12691602002</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>312</v>
-      </c>
-      <c r="C123" t="n">
-        <v>315.9</v>
-      </c>
-      <c r="D123" t="n">
-        <v>315.9</v>
-      </c>
-      <c r="E123" t="n">
-        <v>312</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1478.2196</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-79183.90731602002</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>312</v>
-      </c>
-      <c r="J123" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>314.3</v>
-      </c>
-      <c r="C124" t="n">
-        <v>314.3</v>
-      </c>
-      <c r="D124" t="n">
-        <v>314.3</v>
-      </c>
-      <c r="E124" t="n">
-        <v>314.3</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1200.5721</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-80384.47941602003</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>315.9</v>
-      </c>
-      <c r="J124" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>314.3</v>
-      </c>
-      <c r="C125" t="n">
-        <v>314.3</v>
-      </c>
-      <c r="D125" t="n">
-        <v>314.3</v>
-      </c>
-      <c r="E125" t="n">
-        <v>314.3</v>
-      </c>
-      <c r="F125" t="n">
-        <v>477.7019</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-80384.47941602003</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>314.3</v>
-      </c>
-      <c r="J125" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>312.1</v>
-      </c>
-      <c r="C126" t="n">
-        <v>312.1</v>
-      </c>
-      <c r="D126" t="n">
-        <v>312.1</v>
-      </c>
-      <c r="E126" t="n">
-        <v>312.1</v>
-      </c>
-      <c r="F126" t="n">
-        <v>3360</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-83744.47941602003</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>314.3</v>
-      </c>
-      <c r="J126" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>313.7</v>
-      </c>
-      <c r="C127" t="n">
-        <v>313.7</v>
-      </c>
-      <c r="D127" t="n">
-        <v>313.7</v>
-      </c>
-      <c r="E127" t="n">
-        <v>313.7</v>
-      </c>
-      <c r="F127" t="n">
-        <v>4</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-83740.47941602003</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>312.1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>312.1</v>
-      </c>
-      <c r="C128" t="n">
-        <v>310.3</v>
-      </c>
-      <c r="D128" t="n">
-        <v>312.1</v>
-      </c>
-      <c r="E128" t="n">
-        <v>310.3</v>
-      </c>
-      <c r="F128" t="n">
-        <v>6068.8653</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-89809.34471602003</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>313.7</v>
-      </c>
-      <c r="J128" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>311</v>
-      </c>
-      <c r="C129" t="n">
-        <v>311</v>
-      </c>
-      <c r="D129" t="n">
-        <v>311</v>
-      </c>
-      <c r="E129" t="n">
-        <v>311</v>
-      </c>
-      <c r="F129" t="n">
-        <v>593.716</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-89215.62871602003</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>310.3</v>
-      </c>
-      <c r="J129" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>311</v>
-      </c>
-      <c r="C130" t="n">
-        <v>312.9</v>
-      </c>
-      <c r="D130" t="n">
-        <v>312.9</v>
-      </c>
-      <c r="E130" t="n">
-        <v>311</v>
-      </c>
-      <c r="F130" t="n">
-        <v>100</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-89115.62871602003</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>311</v>
-      </c>
-      <c r="J130" t="n">
-        <v>313.6</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
       <c r="M130" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-23 BackTest PIVX.xlsx
@@ -451,7 +451,7 @@
         <v>-30707.04128159002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-60722.04524985002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-60722.04524985002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-64052.04194985002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-66713.17424985002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2761,14 +2761,10 @@
         <v>-77427.11234985001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="J72" t="n">
-        <v>310.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2801,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2840,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3140,7 +3124,7 @@
         <v>-61417.55011602001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3173,7 +3157,7 @@
         <v>-61417.55011602001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3206,7 +3190,7 @@
         <v>-61373.05011602001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3239,7 +3223,7 @@
         <v>-61373.05011602001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3272,7 +3256,7 @@
         <v>-61003.98241602002</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3338,7 +3322,7 @@
         <v>-61003.98241602002</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3371,7 +3355,7 @@
         <v>-61003.98241602002</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3404,7 +3388,7 @@
         <v>-61949.69861602002</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3437,7 +3421,7 @@
         <v>-56775.69861602002</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3470,7 +3454,7 @@
         <v>-56775.69861602002</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3503,7 +3487,7 @@
         <v>-56775.69861602002</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3536,7 +3520,7 @@
         <v>-56775.69861602002</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3569,7 +3553,7 @@
         <v>-58596.46321602002</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3734,7 +3718,7 @@
         <v>-65399.35051602001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3800,7 +3784,7 @@
         <v>-65806.35051602001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3833,7 +3817,7 @@
         <v>-65806.35051602001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3866,7 +3850,7 @@
         <v>-65806.35051602001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3899,7 +3883,7 @@
         <v>-68714.30511602001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4460,11 +4444,17 @@
         <v>-79183.90731602002</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>312</v>
+      </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4497,7 +4487,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4530,7 +4524,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4559,11 +4557,17 @@
         <v>-83744.47941602003</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>314.3</v>
+      </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4592,11 +4596,17 @@
         <v>-83740.47941602003</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>312.1</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4625,11 +4635,17 @@
         <v>-89809.34471602003</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>313.7</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4658,11 +4674,17 @@
         <v>-89215.62871602003</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>310.3</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4691,15 +4713,13 @@
         <v>-89115.62871602003</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L130" t="n">

--- a/BackTest/2020-01-23 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-23 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>507.5054</v>
       </c>
       <c r="G2" t="n">
-        <v>-30707.04128159002</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2980.8177</v>
       </c>
       <c r="G3" t="n">
-        <v>-27726.22358159002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>9507.235000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>-37233.45858159002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1275.2651</v>
       </c>
       <c r="G5" t="n">
-        <v>-37233.45858159002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>4397.4185</v>
       </c>
       <c r="G6" t="n">
-        <v>-37233.45858159002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>3.2</v>
       </c>
       <c r="G7" t="n">
-        <v>-37230.25858159002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>74.791</v>
       </c>
       <c r="G8" t="n">
-        <v>-37305.04958159002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>9052.641</v>
       </c>
       <c r="G9" t="n">
-        <v>-46357.69058159002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>731.8052</v>
       </c>
       <c r="G10" t="n">
-        <v>-45625.88538159002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2101.6</v>
       </c>
       <c r="G11" t="n">
-        <v>-43524.28538159002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>33.3803</v>
       </c>
       <c r="G12" t="n">
-        <v>-43524.28538159002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>16.9427</v>
       </c>
       <c r="G13" t="n">
-        <v>-43524.28538159002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>162.8243</v>
       </c>
       <c r="G14" t="n">
-        <v>-43687.10968159002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>37.5189</v>
       </c>
       <c r="G15" t="n">
-        <v>-43687.10968159002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3170.0713</v>
       </c>
       <c r="G16" t="n">
-        <v>-43687.10968159002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>6400</v>
       </c>
       <c r="G17" t="n">
-        <v>-37287.10968159002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1000</v>
       </c>
       <c r="G18" t="n">
-        <v>-36287.10968159002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2000</v>
       </c>
       <c r="G19" t="n">
-        <v>-34287.10968159002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>7324.1952</v>
       </c>
       <c r="G20" t="n">
-        <v>-26962.91448159002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>4000</v>
       </c>
       <c r="G21" t="n">
-        <v>-26962.91448159002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1579.7024</v>
       </c>
       <c r="G22" t="n">
-        <v>-28542.61688159002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>92.7931</v>
       </c>
       <c r="G23" t="n">
-        <v>-28449.82378159002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>104</v>
       </c>
       <c r="G24" t="n">
-        <v>-28553.82378159002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>10596.8183</v>
       </c>
       <c r="G25" t="n">
-        <v>-39150.64208159002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1925.5776</v>
       </c>
       <c r="G26" t="n">
-        <v>-39150.64208159002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>9264.135899999999</v>
       </c>
       <c r="G27" t="n">
-        <v>-48414.77798159002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>3733.2147</v>
       </c>
       <c r="G28" t="n">
-        <v>-52147.99268159002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>583.0492</v>
       </c>
       <c r="G29" t="n">
-        <v>-51564.94348159002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>546.9829999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>-52111.92648159002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>823.588</v>
       </c>
       <c r="G31" t="n">
-        <v>-52111.92648159002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>3586.3994</v>
       </c>
       <c r="G32" t="n">
-        <v>-55698.32588159002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>164.4642</v>
       </c>
       <c r="G33" t="n">
-        <v>-55698.32588159002</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>112.4</v>
       </c>
       <c r="G34" t="n">
-        <v>-55810.72588159002</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1286.5802</v>
       </c>
       <c r="G35" t="n">
-        <v>-57097.30608159002</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>51.8926</v>
       </c>
       <c r="G36" t="n">
-        <v>-57045.41348159002</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>566.3825000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>-57045.41348159002</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>25.4786</v>
       </c>
       <c r="G38" t="n">
-        <v>-57045.41348159002</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>387.8607</v>
       </c>
       <c r="G39" t="n">
-        <v>-56657.55278159002</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>226</v>
       </c>
       <c r="G40" t="n">
-        <v>-56883.55278159002</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>198.6191</v>
       </c>
       <c r="G41" t="n">
-        <v>-56883.55278159002</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>19.8412</v>
       </c>
       <c r="G42" t="n">
-        <v>-56883.55278159002</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>119.5</v>
       </c>
       <c r="G43" t="n">
-        <v>-56764.05278159002</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>73.5085</v>
       </c>
       <c r="G44" t="n">
-        <v>-56690.54428159002</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>448.9515</v>
       </c>
       <c r="G45" t="n">
-        <v>-57139.49578159002</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>296.7334</v>
       </c>
       <c r="G46" t="n">
-        <v>-57139.49578159002</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>264.2563</v>
       </c>
       <c r="G47" t="n">
-        <v>-56875.23948159002</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>4720.6651</v>
       </c>
       <c r="G48" t="n">
-        <v>-61595.90458159002</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>110.5415</v>
       </c>
       <c r="G49" t="n">
-        <v>-61485.36308159002</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>365.819</v>
       </c>
       <c r="G50" t="n">
-        <v>-61485.36308159002</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>95.7855</v>
       </c>
       <c r="G51" t="n">
-        <v>-61581.14858159002</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>81.39709999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>-61662.54568159002</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>714.2761</v>
       </c>
       <c r="G53" t="n">
-        <v>-61662.54568159002</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>643.7537</v>
       </c>
       <c r="G54" t="n">
-        <v>-62306.29938159002</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>4500</v>
       </c>
       <c r="G55" t="n">
-        <v>-66806.29938159001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1408.8287</v>
       </c>
       <c r="G56" t="n">
-        <v>-65397.47068159001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>2577.6857</v>
       </c>
       <c r="G57" t="n">
-        <v>-62819.78498159001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>760.7728</v>
       </c>
       <c r="G58" t="n">
-        <v>-63580.55778159001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>3675.99</v>
       </c>
       <c r="G59" t="n">
-        <v>-63580.55778159001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>291.3548</v>
       </c>
       <c r="G60" t="n">
-        <v>-63580.55778159001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,19 @@
         <v>31.74603174</v>
       </c>
       <c r="G61" t="n">
-        <v>-63548.81174985001</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>312</v>
+      </c>
+      <c r="I61" t="n">
+        <v>312</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2247,23 @@
         <v>2837.5272</v>
       </c>
       <c r="G62" t="n">
-        <v>-60711.28454985002</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>315</v>
+      </c>
+      <c r="I62" t="n">
+        <v>312</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2285,21 @@
         <v>10.7607</v>
       </c>
       <c r="G63" t="n">
-        <v>-60722.04524985002</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>312</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2321,15 @@
         <v>3693.992</v>
       </c>
       <c r="G64" t="n">
-        <v>-60722.04524985002</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2351,15 @@
         <v>8152.5528</v>
       </c>
       <c r="G65" t="n">
-        <v>-60722.04524985002</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2381,15 @@
         <v>3329.9967</v>
       </c>
       <c r="G66" t="n">
-        <v>-64052.04194985002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2411,15 @@
         <v>2661.1323</v>
       </c>
       <c r="G67" t="n">
-        <v>-66713.17424985002</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2441,15 @@
         <v>10674.8782</v>
       </c>
       <c r="G68" t="n">
-        <v>-77388.05244985002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2471,15 @@
         <v>109.2927</v>
       </c>
       <c r="G69" t="n">
-        <v>-77278.75974985001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2501,15 @@
         <v>594.024</v>
       </c>
       <c r="G70" t="n">
-        <v>-77872.78374985002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2531,15 @@
         <v>379.6714</v>
       </c>
       <c r="G71" t="n">
-        <v>-77493.11234985001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2561,15 @@
         <v>66</v>
       </c>
       <c r="G72" t="n">
-        <v>-77427.11234985001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2591,15 @@
         <v>15</v>
       </c>
       <c r="G73" t="n">
-        <v>-77442.11234985001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2621,15 @@
         <v>1361.455</v>
       </c>
       <c r="G74" t="n">
-        <v>-77442.11234985001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2651,15 @@
         <v>2661.1323</v>
       </c>
       <c r="G75" t="n">
-        <v>-80103.24464985001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2681,15 @@
         <v>1356.0287</v>
       </c>
       <c r="G76" t="n">
-        <v>-78747.21594985001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2711,15 @@
         <v>17.9764</v>
       </c>
       <c r="G77" t="n">
-        <v>-78765.19234985001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2741,15 @@
         <v>113.1121</v>
       </c>
       <c r="G78" t="n">
-        <v>-78652.08024985001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2771,15 @@
         <v>16103.0661</v>
       </c>
       <c r="G79" t="n">
-        <v>-62549.01414985002</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2801,15 @@
         <v>1649.5403</v>
       </c>
       <c r="G80" t="n">
-        <v>-64198.55444985002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2831,15 @@
         <v>1665.71173383</v>
       </c>
       <c r="G81" t="n">
-        <v>-62532.84271602002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2861,15 @@
         <v>2826.2315</v>
       </c>
       <c r="G82" t="n">
-        <v>-59706.61121602001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2891,15 @@
         <v>1710.9389</v>
       </c>
       <c r="G83" t="n">
-        <v>-61417.55011602001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2921,15 @@
         <v>464.0062</v>
       </c>
       <c r="G84" t="n">
-        <v>-61417.55011602001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2951,15 @@
         <v>44.5</v>
       </c>
       <c r="G85" t="n">
-        <v>-61373.05011602001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2981,15 @@
         <v>773.6439</v>
       </c>
       <c r="G86" t="n">
-        <v>-61373.05011602001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3011,15 @@
         <v>369.0677</v>
       </c>
       <c r="G87" t="n">
-        <v>-61003.98241602002</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3041,15 @@
         <v>3132.3245</v>
       </c>
       <c r="G88" t="n">
-        <v>-61003.98241602002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3071,15 @@
         <v>1170.5805</v>
       </c>
       <c r="G89" t="n">
-        <v>-61003.98241602002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3101,15 @@
         <v>5.7054</v>
       </c>
       <c r="G90" t="n">
-        <v>-61003.98241602002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3131,15 @@
         <v>945.7162</v>
       </c>
       <c r="G91" t="n">
-        <v>-61949.69861602002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3161,15 @@
         <v>5174</v>
       </c>
       <c r="G92" t="n">
-        <v>-56775.69861602002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3191,15 @@
         <v>157</v>
       </c>
       <c r="G93" t="n">
-        <v>-56775.69861602002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3221,15 @@
         <v>1023.28</v>
       </c>
       <c r="G94" t="n">
-        <v>-56775.69861602002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3251,15 @@
         <v>705.5506</v>
       </c>
       <c r="G95" t="n">
-        <v>-56775.69861602002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3281,15 @@
         <v>1820.7646</v>
       </c>
       <c r="G96" t="n">
-        <v>-58596.46321602002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3311,15 @@
         <v>562.5443</v>
       </c>
       <c r="G97" t="n">
-        <v>-59159.00751602002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3341,15 @@
         <v>2042.3786</v>
       </c>
       <c r="G98" t="n">
-        <v>-59159.00751602002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3371,15 @@
         <v>2047.8636</v>
       </c>
       <c r="G99" t="n">
-        <v>-61206.87111602002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3401,15 @@
         <v>3737.2691</v>
       </c>
       <c r="G100" t="n">
-        <v>-64944.14021602002</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3431,15 @@
         <v>455.2103</v>
       </c>
       <c r="G101" t="n">
-        <v>-65399.35051602001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3461,15 @@
         <v>93</v>
       </c>
       <c r="G102" t="n">
-        <v>-65306.35051602001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3491,15 @@
         <v>500</v>
       </c>
       <c r="G103" t="n">
-        <v>-65806.35051602001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3521,15 @@
         <v>78.1936</v>
       </c>
       <c r="G104" t="n">
-        <v>-65806.35051602001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3551,15 @@
         <v>364.4375</v>
       </c>
       <c r="G105" t="n">
-        <v>-65806.35051602001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3581,15 @@
         <v>2907.9546</v>
       </c>
       <c r="G106" t="n">
-        <v>-68714.30511602001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3611,15 @@
         <v>327.9937</v>
       </c>
       <c r="G107" t="n">
-        <v>-68386.31141602001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3641,15 @@
         <v>295.1944</v>
       </c>
       <c r="G108" t="n">
-        <v>-68386.31141602001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3671,15 @@
         <v>100</v>
       </c>
       <c r="G109" t="n">
-        <v>-68486.31141602001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3701,15 @@
         <v>150</v>
       </c>
       <c r="G110" t="n">
-        <v>-68636.31141602001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3731,15 @@
         <v>50.0492</v>
       </c>
       <c r="G111" t="n">
-        <v>-68586.26221602001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3761,15 @@
         <v>520.4856</v>
       </c>
       <c r="G112" t="n">
-        <v>-68065.77661602001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3791,15 @@
         <v>4102.0306</v>
       </c>
       <c r="G113" t="n">
-        <v>-72167.80721602001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3821,15 @@
         <v>879.4542</v>
       </c>
       <c r="G114" t="n">
-        <v>-72167.80721602001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3851,15 @@
         <v>6419</v>
       </c>
       <c r="G115" t="n">
-        <v>-78586.80721602001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3881,15 @@
         <v>2187.4263</v>
       </c>
       <c r="G116" t="n">
-        <v>-78586.80721602001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3911,15 @@
         <v>16</v>
       </c>
       <c r="G117" t="n">
-        <v>-78586.80721602001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3941,15 @@
         <v>697.1002</v>
       </c>
       <c r="G118" t="n">
-        <v>-79283.90741602001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3971,15 @@
         <v>1145.9382</v>
       </c>
       <c r="G119" t="n">
-        <v>-79283.90741602001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4001,15 @@
         <v>1403.0515</v>
       </c>
       <c r="G120" t="n">
-        <v>-79283.90741602001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4031,15 @@
         <v>2656.7498</v>
       </c>
       <c r="G121" t="n">
-        <v>-79283.90741602001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4061,15 @@
         <v>1378.2195</v>
       </c>
       <c r="G122" t="n">
-        <v>-80662.12691602002</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,24 +4091,15 @@
         <v>1478.2196</v>
       </c>
       <c r="G123" t="n">
-        <v>-79183.90731602002</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4480,22 +4121,15 @@
         <v>1200.5721</v>
       </c>
       <c r="G124" t="n">
-        <v>-80384.47941602003</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4517,22 +4151,15 @@
         <v>477.7019</v>
       </c>
       <c r="G125" t="n">
-        <v>-80384.47941602003</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4554,24 +4181,15 @@
         <v>3360</v>
       </c>
       <c r="G126" t="n">
-        <v>-83744.47941602003</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>314.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4593,24 +4211,15 @@
         <v>4</v>
       </c>
       <c r="G127" t="n">
-        <v>-83740.47941602003</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>312.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4632,24 +4241,15 @@
         <v>6068.8653</v>
       </c>
       <c r="G128" t="n">
-        <v>-89809.34471602003</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>313.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4671,24 +4271,15 @@
         <v>593.716</v>
       </c>
       <c r="G129" t="n">
-        <v>-89215.62871602003</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>310.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4710,22 +4301,15 @@
         <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>-89115.62871602003</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
